--- a/report/Verification plan.xlsx
+++ b/report/Verification plan.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\courses\Digital\Verification\Projects\UVM_FIFO\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\courses\Digital\Verification\Projects\UVM_FIFO\report\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD6F2928-677D-4E1E-8534-AD7CCD3DD1A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09B443D9-E848-429F-9B9C-8B27405AAD29}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -114,9 +114,6 @@
     <t>(@(posedge clk) (count == FIFO_DEPTH-1) |-&gt; (almostfull==1))</t>
   </si>
   <si>
-    <t xml:space="preserve">when the write is low and read is high and the fifo is full , so the output value for underflow is high </t>
-  </si>
-  <si>
     <t>Randomization under constraint on the write enable to be high randomized from using sequence read only  the simulation time</t>
   </si>
   <si>
@@ -157,6 +154,9 @@
   </si>
   <si>
     <t xml:space="preserve">Random and the wr_Ack is low when it is full </t>
+  </si>
+  <si>
+    <t xml:space="preserve">when the write is low and read is high and the fifo is empty , so the output value for underflow is high </t>
   </si>
 </sst>
 </file>
@@ -615,8 +615,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{515A02D0-FDD7-4F6A-B82D-E44EA4726951}">
   <dimension ref="A1:Z969"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -677,7 +677,7 @@
         <v>18</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D2" s="5" t="s">
         <v>3</v>
@@ -717,7 +717,7 @@
         <v>12</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D3" s="5" t="s">
         <v>16</v>
@@ -835,7 +835,7 @@
         <v>15</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D6" s="5" t="s">
         <v>16</v>
@@ -844,7 +844,7 @@
         <v>26</v>
       </c>
       <c r="F6" s="6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G6" s="3"/>
       <c r="H6" s="3"/>
@@ -872,10 +872,10 @@
         <v>10</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>29</v>
+        <v>43</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D7" s="5" t="s">
         <v>16</v>
@@ -884,7 +884,7 @@
         <v>27</v>
       </c>
       <c r="F7" s="6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G7" s="3"/>
       <c r="H7" s="3"/>
@@ -909,22 +909,22 @@
     </row>
     <row r="8" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="B8" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="B8" s="5" t="s">
+      <c r="C8" s="5" t="s">
         <v>37</v>
-      </c>
-      <c r="C8" s="5" t="s">
-        <v>38</v>
       </c>
       <c r="D8" s="5" t="s">
         <v>16</v>
       </c>
       <c r="E8" s="6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F8" s="6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G8" s="3"/>
       <c r="H8" s="3"/>
@@ -949,22 +949,22 @@
     </row>
     <row r="9" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D9" s="5" t="s">
         <v>16</v>
       </c>
       <c r="E9" s="6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F9" s="6" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G9" s="3"/>
       <c r="H9" s="3"/>
